--- a/surya_methods_validation/ancova/organ_surya_results_validation_regression.xlsx
+++ b/surya_methods_validation/ancova/organ_surya_results_validation_regression.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_methods_validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_methods_validation\ancova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788675E3-E222-45A7-97AF-1E898C61BDDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F720E-BC90-4A6F-BC8C-5E9614E9F561}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
   </bookViews>
@@ -226,9 +226,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -327,13 +327,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/surya_methods_validation/ancova/organ_surya_results_validation_regression.xlsx
+++ b/surya_methods_validation/ancova/organ_surya_results_validation_regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_methods_validation\ancova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F720E-BC90-4A6F-BC8C-5E9614E9F561}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439A536-45A4-4696-BB92-853CB2A1BCB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
   </bookViews>
@@ -859,14 +859,17 @@
     <col min="5" max="5" width="6.76953125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.76953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.76953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6796875" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.76953125" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.76953125" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.76953125" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -1146,7 +1149,7 @@
       <c r="J5" s="15">
         <v>0.15232577403600001</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="15">
         <v>295.62817022438901</v>
       </c>
       <c r="L5" s="17">
@@ -1226,13 +1229,13 @@
       <c r="J6" s="15">
         <v>-1.8847873099E-2</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="15">
         <v>295.62817022438901</v>
       </c>
       <c r="L6" s="17">
         <v>0.63591412413199999</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="15">
         <v>9.9244880000000002</v>
       </c>
       <c r="N6" s="14">
@@ -1306,13 +1309,13 @@
       <c r="J7" s="15">
         <v>1.8847873099E-2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="15">
         <v>295.62817022438901</v>
       </c>
       <c r="L7" s="17">
         <v>0.63591412413199999</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="15">
         <v>8.1777979999999992</v>
       </c>
       <c r="N7" s="14">
@@ -1883,7 +1886,7 @@
       <c r="I16" s="15">
         <v>-4.0225150000000003</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="15">
         <v>1.4135999999999999E-2</v>
       </c>
       <c r="K16" s="15">
@@ -1952,7 +1955,7 @@
       <c r="I17" s="15">
         <v>-8.6500819999999994</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="15">
         <v>0.17652000000000001</v>
       </c>
       <c r="K17" s="15">
@@ -2175,9 +2178,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2351,26 +2357,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2394,9 +2389,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_methods_validation/ancova/organ_surya_results_validation_regression.xlsx
+++ b/surya_methods_validation/ancova/organ_surya_results_validation_regression.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_methods_validation\ancova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2_evolution\surya_methods_validation\ancova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439A536-45A4-4696-BB92-853CB2A1BCB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -223,12 +222,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,6 +334,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,19 +648,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65725C74-E320-49C2-9041-7CC34A4B5CCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.76953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.31640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -667,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -675,7 +676,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -683,7 +684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -691,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -699,12 +700,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -712,12 +713,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -725,7 +726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -733,7 +734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -741,7 +742,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -749,7 +750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -757,7 +758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -765,7 +766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -773,7 +774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -781,7 +782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -797,7 +798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -805,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -813,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,7 +822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -829,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -845,39 +846,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACDFB8-7AE7-4540-B402-8A2C562F39AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.04296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.04296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.76953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.76953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.76953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.76953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.76953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.76953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -954,7 +955,7 @@
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>3.2958228660043289</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1118,7 +1119,7 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1198,7 +1199,7 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1278,7 +1279,7 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1358,7 +1359,7 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>33.198259464017298</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>33.198259464017298</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1571,18 +1572,18 @@
         <v>33.198259464017298</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="16">
-        <v>9.9999999999999995E-7</v>
+      <c r="D11" s="12">
+        <v>0</v>
       </c>
       <c r="E11" s="17">
-        <v>-1.9924497999999999</v>
+        <v>-1.9924520999999999</v>
       </c>
       <c r="F11" s="17">
         <v>0.57962809999999998</v>
@@ -1592,35 +1593,35 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="15">
-        <v>200.87200000000001</v>
+        <v>185.99275325748599</v>
       </c>
       <c r="L11" s="17">
-        <v>0.60399999999999998</v>
+        <v>0.60435387851629796</v>
       </c>
       <c r="M11" s="15">
-        <v>5.1191909999999998</v>
+        <v>5.11918541</v>
       </c>
       <c r="N11" s="14">
-        <v>9.3797000000000005E-2</v>
+        <v>9.3796619999999997E-2</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="13">
-        <v>1.8379016305501801E-6</v>
+        <v>1.837898E-6</v>
       </c>
       <c r="T11" s="15">
-        <v>-108.42270000000001</v>
+        <v>-108.8584</v>
       </c>
       <c r="U11" s="14">
-        <v>226.50200000000001</v>
+        <v>227.60429999999999</v>
       </c>
       <c r="V11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1628,49 +1629,46 @@
         <v>10</v>
       </c>
       <c r="D12" s="16">
-        <v>-0.256465</v>
+        <v>-1.141748</v>
       </c>
       <c r="E12" s="17">
-        <v>-0.55628120000000003</v>
+        <v>9.3080736000000002</v>
       </c>
       <c r="F12" s="17">
-        <v>0.56301970000000001</v>
+        <v>0.44416319999999998</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="15">
-        <v>168.98</v>
+        <v>143.74939066194599</v>
       </c>
       <c r="L12" s="17">
-        <v>0.60299999999999998</v>
+        <v>0.55174798663543501</v>
       </c>
       <c r="M12" s="15">
-        <v>4.3799390000000002</v>
+        <v>2.4646938</v>
       </c>
       <c r="N12" s="14">
-        <v>8.8577000000000003E-2</v>
+        <v>4.7507809999999998E-2</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="13">
-        <v>1.18332672382817E-6</v>
+        <v>1.2246299999999999E-9</v>
       </c>
       <c r="T12" s="15">
-        <v>-106.9393</v>
+        <v>-97.568449999999999</v>
       </c>
       <c r="U12" s="14">
-        <v>226.7542</v>
-      </c>
-      <c r="V12" s="14">
-        <f>U12-U11</f>
-        <v>0.25219999999998777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.6">
+        <v>208.3202</v>
+      </c>
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,46 +1679,46 @@
         <v>1</v>
       </c>
       <c r="E13" s="17">
-        <v>-2.6435339999999998</v>
+        <v>0.17421500000000001</v>
       </c>
       <c r="F13" s="17">
-        <v>0.61829290000000003</v>
+        <v>0.58472679999999999</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="15">
-        <v>1031.201</v>
+        <v>1652.5073373397299</v>
       </c>
       <c r="L13" s="17">
-        <v>0.59899999999999998</v>
+        <v>0.52079438556427005</v>
       </c>
       <c r="M13" s="15">
-        <v>16.373792000000002</v>
+        <v>15.893286399999999</v>
       </c>
       <c r="N13" s="14">
-        <v>0.11354499999999999</v>
+        <v>0.1121788</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="13">
-        <v>1.1827458031020999E-5</v>
+        <v>2.1529540000000001E-5</v>
       </c>
       <c r="T13" s="15">
-        <v>-117.04949999999999</v>
+        <v>-119.2183</v>
       </c>
       <c r="U13" s="14">
-        <v>243.75559999999999</v>
+        <v>248.32409999999999</v>
       </c>
       <c r="V13" s="14">
         <f>U13-U11</f>
-        <v>17.253599999999977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.6">
+        <v>20.719799999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1730,66 +1728,66 @@
       <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="16">
-        <v>9.9999999999999995E-7</v>
+      <c r="D14" s="12">
+        <v>0</v>
       </c>
       <c r="E14" s="17">
-        <v>1.8432360000000001</v>
+        <v>1.8432329999999999</v>
       </c>
       <c r="F14" s="17">
-        <v>0.48167900000000002</v>
+        <v>0.48167939999999998</v>
       </c>
       <c r="G14" s="15">
-        <v>-7.680161</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.14937</v>
+        <v>-7.6801583999999998</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.14937909999999999</v>
       </c>
       <c r="I14" s="15">
-        <v>-3.657645</v>
+        <v>-3.6576430000000002</v>
       </c>
       <c r="J14" s="15">
-        <v>0.135243</v>
+        <v>0.13524340000000001</v>
       </c>
       <c r="K14" s="15">
-        <v>232.16200000000001</v>
+        <v>180.57068897967</v>
       </c>
       <c r="L14" s="17">
-        <v>0.61599999999999999</v>
+        <v>0.61588776176917703</v>
       </c>
       <c r="M14" s="15">
-        <v>9.1113239999999998</v>
+        <v>9.1113133000000008</v>
       </c>
       <c r="N14" s="14">
         <v>0.18069199999999999</v>
       </c>
       <c r="O14" s="15">
-        <v>13.966571999999999</v>
+        <v>13.9665628</v>
       </c>
       <c r="P14" s="15">
-        <v>0.26244000000000001</v>
+        <v>0.2624399</v>
       </c>
       <c r="Q14" s="15">
-        <v>13.061026</v>
+        <v>13.061012399999999</v>
       </c>
       <c r="R14" s="15">
         <v>0.24068999999999999</v>
       </c>
       <c r="S14" s="13">
-        <v>1.4465703749475201E-2</v>
+        <v>1.446566E-2</v>
       </c>
       <c r="T14" s="15">
-        <v>-103.6541</v>
+        <v>-108.459</v>
       </c>
       <c r="U14" s="14">
-        <v>228.6199</v>
+        <v>239.9888</v>
       </c>
       <c r="V14" s="14">
         <f>U14-U11</f>
-        <v>2.1178999999999917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.6">
+        <v>12.384500000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1799,66 +1797,66 @@
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="16">
-        <v>9.9999999999999995E-7</v>
+      <c r="D15" s="12">
+        <v>0</v>
       </c>
       <c r="E15" s="17">
-        <v>-5.8369200000000001</v>
+        <v>-5.8369253600000004</v>
       </c>
       <c r="F15" s="17">
-        <v>0.63105900000000004</v>
+        <v>0.63105849000000003</v>
       </c>
       <c r="G15" s="15">
-        <v>7.680161</v>
-      </c>
-      <c r="H15" s="15">
-        <v>-0.14937900000000001</v>
+        <v>7.68015837</v>
+      </c>
+      <c r="H15" s="18">
+        <v>-0.14937908</v>
       </c>
       <c r="I15" s="15">
-        <v>4.0225150000000003</v>
+        <v>4.0225153799999998</v>
       </c>
       <c r="J15" s="15">
-        <v>-1.4135999999999999E-2</v>
+        <v>-1.4135689999999999E-2</v>
       </c>
       <c r="K15" s="15">
-        <v>232.16200000000001</v>
+        <v>180.57068897967</v>
       </c>
       <c r="L15" s="17">
-        <v>0.61599999999999999</v>
+        <v>0.61588776176917703</v>
       </c>
       <c r="M15" s="15">
-        <v>10.585319999999999</v>
+        <v>10.585312800000001</v>
       </c>
       <c r="N15" s="14">
         <v>0.190329</v>
       </c>
       <c r="O15" s="15">
-        <v>13.966571999999999</v>
+        <v>13.9665628</v>
       </c>
       <c r="P15" s="15">
-        <v>0.26244000000000001</v>
+        <v>0.2624399</v>
       </c>
       <c r="Q15" s="15">
-        <v>14.128807</v>
+        <v>14.128795500000001</v>
       </c>
       <c r="R15" s="15">
-        <v>0.24800700000000001</v>
+        <v>0.24800649999999999</v>
       </c>
       <c r="S15" s="13">
-        <v>3.2876663171404002E-3</v>
+        <v>3.2876670000000002E-3</v>
       </c>
       <c r="T15" s="15">
-        <v>-103.6541</v>
+        <v>-108.459</v>
       </c>
       <c r="U15" s="14">
-        <v>228.6199</v>
+        <v>239.9888</v>
       </c>
       <c r="V15" s="14">
         <f>U15-U11</f>
-        <v>2.1178999999999917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.6">
+        <v>12.384500000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1868,66 +1866,66 @@
       <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="16">
-        <v>9.9999999999999995E-7</v>
+      <c r="D16" s="12">
+        <v>0</v>
       </c>
       <c r="E16" s="17">
-        <v>-1.8144089999999999</v>
+        <v>-1.81440998</v>
       </c>
       <c r="F16" s="17">
-        <v>0.616923</v>
+        <v>0.61692279999999999</v>
       </c>
       <c r="G16" s="15">
-        <v>3.657645</v>
-      </c>
-      <c r="H16" s="15">
-        <v>-0.135243</v>
+        <v>-4.0225153799999998</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1.4135689999999999E-2</v>
       </c>
       <c r="I16" s="15">
-        <v>-4.0225150000000003</v>
+        <v>3.6576429899999998</v>
       </c>
       <c r="J16" s="15">
-        <v>1.4135999999999999E-2</v>
+        <v>-0.13524340000000001</v>
       </c>
       <c r="K16" s="15">
-        <v>232.16200000000001</v>
+        <v>180.57068897967</v>
       </c>
       <c r="L16" s="17">
-        <v>0.61599999999999999</v>
+        <v>0.61588776176917703</v>
       </c>
       <c r="M16" s="15">
-        <v>9.3581079999999996</v>
+        <v>9.3580988999999999</v>
       </c>
       <c r="N16" s="14">
-        <v>0.15900300000000001</v>
+        <v>0.15900339999999999</v>
       </c>
       <c r="O16" s="15">
-        <v>13.061026</v>
+        <v>14.128795500000001</v>
       </c>
       <c r="P16" s="15">
+        <v>0.24800649999999999</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>13.061012399999999</v>
+      </c>
+      <c r="R16" s="15">
         <v>0.24068999999999999</v>
       </c>
-      <c r="Q16" s="15">
-        <v>14.128807</v>
-      </c>
-      <c r="R16" s="15">
-        <v>0.24800700000000001</v>
-      </c>
       <c r="S16" s="13">
-        <v>8.6537874145481799E-4</v>
+        <v>8.6537780000000002E-4</v>
       </c>
       <c r="T16" s="15">
-        <v>-103.6541</v>
+        <v>-108.459</v>
       </c>
       <c r="U16" s="14">
-        <v>228.6199</v>
+        <v>239.9888</v>
       </c>
       <c r="V16" s="14">
         <f>U16-U11</f>
-        <v>2.1178999999999917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
+        <v>12.384500000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,62 +1939,62 @@
         <v>1</v>
       </c>
       <c r="E17" s="17">
-        <v>6.9384100000000002</v>
+        <v>6.5068657999999999</v>
       </c>
       <c r="F17" s="17">
-        <v>0.42271700000000001</v>
+        <v>0.42218050000000001</v>
       </c>
       <c r="G17" s="15">
-        <v>-19.962644000000001</v>
-      </c>
-      <c r="H17" s="15">
-        <v>-8.6500819999999994</v>
+        <v>-17.363419</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.37194169999999999</v>
       </c>
       <c r="I17" s="15">
-        <v>-8.6500819999999994</v>
+        <v>-5.7968713000000003</v>
       </c>
       <c r="J17" s="15">
-        <v>0.17652000000000001</v>
+        <v>0.18387149999999999</v>
       </c>
       <c r="K17" s="15">
-        <v>1134.433</v>
+        <v>1522.7074675343899</v>
       </c>
       <c r="L17" s="17">
-        <v>0.59199999999999997</v>
+        <v>0.55843465799045999</v>
       </c>
       <c r="M17" s="15">
-        <v>27.006930000000001</v>
+        <v>24.297670700000001</v>
       </c>
       <c r="N17" s="14">
-        <v>0.21343000000000001</v>
+        <v>0.18248529999999999</v>
       </c>
       <c r="O17" s="15">
-        <v>30.355540000000001</v>
+        <v>28.973695500000002</v>
       </c>
       <c r="P17" s="15">
-        <v>0.29060000000000002</v>
+        <v>0.28428320000000001</v>
       </c>
       <c r="Q17" s="15">
-        <v>38.372100000000003</v>
+        <v>36.182867600000002</v>
       </c>
       <c r="R17" s="15">
-        <v>0.29981999999999998</v>
+        <v>0.28305530000000001</v>
       </c>
       <c r="S17" s="13">
-        <v>6.0883315365988601E-2</v>
+        <v>3.0914440000000001E-2</v>
       </c>
       <c r="T17" s="15">
-        <v>-108.4552</v>
+        <v>-118.1139</v>
       </c>
       <c r="U17" s="14">
-        <v>238.22210000000001</v>
+        <v>259.29880000000003</v>
       </c>
       <c r="V17" s="14">
         <f>U17-U11</f>
-        <v>11.720100000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
+        <v>31.694500000000033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2010,62 +2008,62 @@
         <v>1</v>
       </c>
       <c r="E18" s="17">
-        <v>-13.024234</v>
+        <v>-10.8565532</v>
       </c>
       <c r="F18" s="17">
-        <v>0.80287799999999998</v>
+        <v>0.7941222</v>
       </c>
       <c r="G18" s="15">
-        <v>19.962644000000001</v>
-      </c>
-      <c r="H18" s="15">
-        <v>-0.38016100000000003</v>
+        <v>11.566547699999999</v>
+      </c>
+      <c r="H18" s="18">
+        <v>-0.1880703</v>
       </c>
       <c r="I18" s="15">
-        <v>11.312561000000001</v>
+        <v>17.363419</v>
       </c>
       <c r="J18" s="15">
-        <v>-0.20364099999999999</v>
+        <v>-0.37194169999999999</v>
       </c>
       <c r="K18" s="15">
-        <v>1134.433</v>
+        <v>1522.7074675343899</v>
       </c>
       <c r="L18" s="17">
-        <v>0.59199999999999997</v>
+        <v>0.55843465799045999</v>
       </c>
       <c r="M18" s="15">
-        <v>27.424230000000001</v>
+        <v>27.625223299999998</v>
       </c>
       <c r="N18" s="14">
-        <v>0.19752</v>
+        <v>0.2179818</v>
       </c>
       <c r="O18" s="15">
-        <v>30.355540000000001</v>
+        <v>38.496442299999998</v>
       </c>
       <c r="P18" s="15">
-        <v>0.29060000000000002</v>
+        <v>0.30714079999999999</v>
       </c>
       <c r="Q18" s="15">
-        <v>38.666939999999997</v>
+        <v>28.973695500000002</v>
       </c>
       <c r="R18" s="15">
-        <v>0.28871000000000002</v>
+        <v>0.28428320000000001</v>
       </c>
       <c r="S18" s="13">
-        <v>5.5638827707120897E-4</v>
+        <v>1.5202359999999999E-3</v>
       </c>
       <c r="T18" s="15">
-        <v>-108.4552</v>
+        <v>-118.1139</v>
       </c>
       <c r="U18" s="14">
-        <v>238.22210000000001</v>
+        <v>259.29880000000003</v>
       </c>
       <c r="V18" s="14">
         <f>U18-U11</f>
-        <v>11.720100000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
+        <v>31.694500000000033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2079,62 +2077,62 @@
         <v>1</v>
       </c>
       <c r="E19" s="17">
-        <v>-1.711673</v>
+        <v>0.70999449999999997</v>
       </c>
       <c r="F19" s="17">
-        <v>0.59923700000000002</v>
-      </c>
-      <c r="G19" s="15">
-        <v>8.6500819999999994</v>
-      </c>
-      <c r="H19" s="15">
-        <v>-0.17652000000000001</v>
+        <v>0.60605200000000004</v>
+      </c>
+      <c r="G19" s="11">
+        <v>5.7968713000000003</v>
+      </c>
+      <c r="H19" s="18">
+        <v>-0.18387149999999999</v>
       </c>
       <c r="I19" s="15">
-        <v>-11.312561000000001</v>
+        <v>-11.566547699999999</v>
       </c>
       <c r="J19" s="15">
-        <v>0.20364099999999999</v>
+        <v>0.1880703</v>
       </c>
       <c r="K19" s="15">
-        <v>1134.433</v>
+        <v>1522.7074675343899</v>
       </c>
       <c r="L19" s="17">
-        <v>0.59199999999999997</v>
+        <v>0.55843465799045999</v>
       </c>
       <c r="M19" s="15">
-        <v>27.25883</v>
+        <v>26.810876700000001</v>
       </c>
       <c r="N19" s="14">
-        <v>0.21057000000000001</v>
+        <v>0.21637799999999999</v>
       </c>
       <c r="O19" s="15">
-        <v>38.372100000000003</v>
+        <v>36.182867600000002</v>
       </c>
       <c r="P19" s="15">
-        <v>0.29981999999999998</v>
+        <v>0.28305530000000001</v>
       </c>
       <c r="Q19" s="15">
-        <v>38.666939999999997</v>
+        <v>38.496442299999998</v>
       </c>
       <c r="R19" s="15">
-        <v>0.28871000000000002</v>
+        <v>0.30714079999999999</v>
       </c>
       <c r="S19" s="13">
-        <v>9.6800622465885305E-3</v>
+        <v>1.070815E-2</v>
       </c>
       <c r="T19" s="15">
-        <v>-108.4552</v>
+        <v>-118.1139</v>
       </c>
       <c r="U19" s="14">
-        <v>238.22210000000001</v>
+        <v>259.29880000000003</v>
       </c>
       <c r="V19" s="14">
         <f>U19-U11</f>
-        <v>11.720100000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
+        <v>31.694500000000033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="10"/>
@@ -2151,7 +2149,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="10"/>
